--- a/StereoBoy Hardware Plans.xlsx
+++ b/StereoBoy Hardware Plans.xlsx
@@ -2,20 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Pin Mapping SDIO" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Components" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Peripherals" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Timing" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Scratchpad" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Checklist" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Power" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Components" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Shopping List" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Pin Mapping SDIO'!$A$1:$I$33</definedName>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="191">
   <si>
     <t xml:space="preserve">Cart Pin #</t>
   </si>
@@ -47,7 +44,10 @@
     <t xml:space="preserve">Use case</t>
   </si>
   <si>
-    <t xml:space="preserve">Other funcs</t>
+    <t xml:space="preserve">Alt. Func.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">LOCKED</t>
   </si>
   <si>
+    <t xml:space="preserve">Not going anywhere.</t>
+  </si>
+  <si>
     <t xml:space="preserve">QSPI_D3</t>
   </si>
   <si>
@@ -83,157 +86,223 @@
     <t xml:space="preserve">QSPI_CS</t>
   </si>
   <si>
-    <t xml:space="preserve">SD_DETECT</t>
+    <t xml:space="preserve">SD_CS</t>
   </si>
   <si>
     <t xml:space="preserve">SD card</t>
   </si>
   <si>
-    <t xml:space="preserve">SD_CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC1</t>
+    <t xml:space="preserve">ADC 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSPI PSRAM CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART1 TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C0 SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 8 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use as ADC/GPIO or as CS pin for external 8MB QSPI RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD card detect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use as ADC/GPIO or as cartridge detect pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1 MISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC/GPIO pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_SCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_MOSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_MISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSTX0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1 RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART0 TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 6 A</t>
   </si>
   <si>
     <t xml:space="preserve">GPIO</t>
   </si>
   <si>
-    <t xml:space="preserve">SPI1 RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART1 TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C0 SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 8 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC0</t>
+    <t xml:space="preserve">HSTX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 13</t>
   </si>
   <si>
     <t xml:space="preserve">SPI1 CS</t>
   </si>
   <si>
+    <t xml:space="preserve">UART0 RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C0 SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 6 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSTX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1 SCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART0 CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1 SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 7 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSTX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1 TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART0 RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1 SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 7 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSTX4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI0 RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 0 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSTX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI0 CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 0 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSTX6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI0 SCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 1 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSTX7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI0 TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 1 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C0_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM 2 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C bus connected to RP2350, DAC, and FRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C0_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO 21</t>
+  </si>
+  <si>
     <t xml:space="preserve">UART1 RX</t>
   </si>
   <si>
-    <t xml:space="preserve">I2C0 SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 8 B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_MOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_MISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART0 TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 6 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART0 RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 6 B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1 SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART0 CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1 SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 7 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1 TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART0 RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1 SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 7 B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI0 RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 0 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI0 CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 0 B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI0 SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 1 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI0 TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 1 B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C0_SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM 2 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C0_SCL</t>
-  </si>
-  <si>
     <t xml:space="preserve">PWM 2 B</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>
   </si>
   <si>
-    <t xml:space="preserve">????</t>
+    <t xml:space="preserve">RST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RST pin to enable external reset of RP2350 from cartridge. Debating on keeping.</t>
   </si>
   <si>
     <t xml:space="preserve">I2S_MCLK</t>
@@ -242,6 +311,9 @@
     <t xml:space="preserve">Audio</t>
   </si>
   <si>
+    <t xml:space="preserve">I2S interface wired to Codec/DAC. NOT CONNECTED TO RP2350 IN ANY WAY WHATSOEVER</t>
+  </si>
+  <si>
     <t xml:space="preserve">I2S_WSEL</t>
   </si>
   <si>
@@ -257,6 +329,117 @@
     <t xml:space="preserve">5V</t>
   </si>
   <si>
+    <t xml:space="preserve">Display off, headphones (A)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Display on, headphones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> (A)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Display off, speaker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> (A)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Display on,  speaker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> (A)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PSU efficiency (%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AAA capacit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">y (mA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AAA voltage (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ChicagoFLF"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">V)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Component</t>
   </si>
   <si>
@@ -266,7 +449,7 @@
     <t xml:space="preserve">Interface Prim.</t>
   </si>
   <si>
-    <t xml:space="preserve">Interface Bkup</t>
+    <t xml:space="preserve">What does it do</t>
   </si>
   <si>
     <t xml:space="preserve">Speed</t>
@@ -317,7 +500,7 @@
     <t xml:space="preserve">SPI 1</t>
   </si>
   <si>
-    <t xml:space="preserve">25 MHz</t>
+    <t xml:space="preserve">35MHz</t>
   </si>
   <si>
     <t xml:space="preserve">3.3V / 1.8V</t>
@@ -326,24 +509,21 @@
     <t xml:space="preserve">1.54” IPS LCD</t>
   </si>
   <si>
+    <t xml:space="preserve">SPI 0 / PIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro-SD card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Storage</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPI 0</t>
   </si>
   <si>
-    <t xml:space="preserve">PIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.5 MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro-SD card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music Storage</t>
-  </si>
-  <si>
     <t xml:space="preserve">W25Q128</t>
   </si>
   <si>
@@ -362,15 +542,21 @@
     <t xml:space="preserve">I2C 0</t>
   </si>
   <si>
+    <t xml:space="preserve">Audio output</t>
+  </si>
+  <si>
     <t xml:space="preserve">400 Khz</t>
   </si>
   <si>
-    <t xml:space="preserve">FM24W256</t>
+    <t xml:space="preserve">FM24C64B</t>
   </si>
   <si>
     <t xml:space="preserve">FRAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Nonvolatile storage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Low</t>
   </si>
   <si>
@@ -398,6 +584,9 @@
     <t xml:space="preserve">Button Sh. Reg.</t>
   </si>
   <si>
+    <t xml:space="preserve">Reads buttons</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Khz</t>
   </si>
   <si>
@@ -407,6 +596,9 @@
     <t xml:space="preserve">Buzzer</t>
   </si>
   <si>
+    <t xml:space="preserve">Simple beeps</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPS61090</t>
   </si>
   <si>
@@ -461,94 +653,43 @@
     <t xml:space="preserve">ADC 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Peripheral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proc. Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logic Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAC, FRAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly Logic Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audio playback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly Mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED driver, mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSTX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VideoMag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons, Buzzer, RGB LED, analog muxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update display</t>
+    <t xml:space="preserve">Volume/Brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quant / Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price / Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price for 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUDGET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFTOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcontroller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB COST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTS COST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTS TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP cartridge port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartridge port</t>
   </si>
 </sst>
 </file>
@@ -558,7 +699,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -629,6 +770,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFAFAFA"/>
+      <name val="ChicagoFLF"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ChicagoFLF"/>
@@ -641,16 +789,10 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFE91E63"/>
-      <name val="ChicagoFLF"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FFFAFAFA"/>
-      <name val="ChicagoFLF"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -659,14 +801,8 @@
       <name val="ChicagoFLF"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,14 +817,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFFB21E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FF757575"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor rgb="FF757575"/>
       </patternFill>
     </fill>
     <fill>
@@ -700,7 +842,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDC002A"/>
-        <bgColor rgb="FFDC0000"/>
+        <bgColor rgb="FFBF0041"/>
       </patternFill>
     </fill>
     <fill>
@@ -723,20 +865,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor rgb="FF89FD78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCF4C6"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD32F2F"/>
+        <bgColor rgb="FFFF4000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF757575"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFB21E"/>
-        <bgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF972F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor rgb="FF89FD78"/>
       </patternFill>
     </fill>
     <fill>
@@ -753,20 +913,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD32F2F"/>
-        <bgColor rgb="FFE91E63"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFAA95"/>
-        <bgColor rgb="FFF48FB1"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7B1FA2"/>
-        <bgColor rgb="FF660066"/>
+        <bgColor rgb="FF5B277D"/>
       </patternFill>
     </fill>
     <fill>
@@ -778,13 +932,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCE93D8"/>
-        <bgColor rgb="FFF48FB1"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1BEE7"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -829,7 +983,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -838,19 +992,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -858,11 +1008,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,32 +1016,32 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -906,31 +1052,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,6 +1105,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,8 +1132,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -971,19 +1165,19 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFDC0000"/>
+      <rgbColor rgb="FFDC002A"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFE91E63"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFDC002A"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF757575"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF90EE90"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFAB47BC"/>
@@ -1003,18 +1197,18 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF90EE90"/>
+      <rgbColor rgb="FFCCF4C6"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF79BDFF"/>
-      <rgbColor rgb="FFF48FB1"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFCE93D8"/>
-      <rgbColor rgb="FFFFAA95"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF34B3FB"/>
       <rgbColor rgb="FF77BC65"/>
-      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFFB21E"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF972F"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
@@ -1023,7 +1217,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFD32F2F"/>
       <rgbColor rgb="FFAD61BB"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF5B277D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -1041,9 +1235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>613080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1053,7 +1247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="182880" y="229320"/>
-          <a:ext cx="6125400" cy="2426400"/>
+          <a:ext cx="6119640" cy="2420640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,7 +1279,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="8800" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="8800" b="0" i="1" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1096,7 +1290,7 @@
             </a:rPr>
             <a:t>StereoBoy</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="8800" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="8800" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1115,9 +1309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>610920</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1127,7 +1321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="174960" y="2860200"/>
-          <a:ext cx="6125400" cy="2426400"/>
+          <a:ext cx="6119640" cy="2420640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,7 +1353,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="7200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="7200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1170,7 +1364,7 @@
             </a:rPr>
             <a:t>StereoBoy</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="7200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="7200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1189,9 +1383,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>481320</xdr:colOff>
+      <xdr:colOff>475560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1201,7 +1395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6548040" y="222120"/>
-          <a:ext cx="6125400" cy="2426400"/>
+          <a:ext cx="6119640" cy="2420640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,7 +1427,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="6600" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="6600" b="0" i="1" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1244,7 +1438,7 @@
             </a:rPr>
             <a:t>STEREOBOY</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="6600" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="6600" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1261,16 +1455,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>181440</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>524880</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>507960</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1279,8 +1473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8906040" y="162720"/>
-          <a:ext cx="5792040" cy="7636680"/>
+          <a:off x="181440" y="5593680"/>
+          <a:ext cx="5786280" cy="7630920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1312,7 +1506,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1323,7 +1517,7 @@
             </a:rPr>
             <a:t>*** SCRATCHPAD ***</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1335,7 +1529,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1348,7 +1542,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1359,7 +1553,7 @@
             </a:rPr>
             <a:t>&gt; SD card and Codec share same SPI bus (SPI1)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1371,7 +1565,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1384,7 +1578,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1395,7 +1589,7 @@
             </a:rPr>
             <a:t>&gt; QSPI not working? Backup plan is to use RP2354 and maybe use QSPI pins for 2nd flash or PSRAM</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1407,7 +1601,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1420,7 +1614,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1431,7 +1625,7 @@
             </a:rPr>
             <a:t>&gt; Kill volume a bit when FF/REW</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1443,7 +1637,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1456,7 +1650,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1467,7 +1661,7 @@
             </a:rPr>
             <a:t>&gt; NEXT STEPS:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1480,7 +1674,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1491,7 +1685,7 @@
             </a:rPr>
             <a:t>→ Oscope display?</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1504,7 +1698,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1515,7 +1709,7 @@
             </a:rPr>
             <a:t>→ GUI menu?</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1527,7 +1721,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1540,7 +1734,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1551,7 +1745,7 @@
             </a:rPr>
             <a:t>It seems file skip on initial play makes headphones squeak. Kill DAC on start play and enable before playing?</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1563,7 +1757,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1576,7 +1770,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1587,7 +1781,7 @@
             </a:rPr>
             <a:t>THINGS TO WORK ON:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1600,7 +1794,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1609,21 +1803,9 @@
               <a:latin typeface="ChicagoFLF"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:rPr>
-            <a:t>→</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="e91e63"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="ChicagoFLF"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:rPr>
-            <a:t> Power switch 3.3V EN → WORKS!!!!!</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:t>→ Rewind:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1636,7 +1818,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1645,9 +1827,21 @@
               <a:latin typeface="ChicagoFLF"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:rPr>
-            <a:t>→ Check DAC audio level</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ Change wave color on FF/REW</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1660,7 +1854,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1669,9 +1863,33 @@
               <a:latin typeface="ChicagoFLF"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:rPr>
-            <a:t>→ fast artwork extraction</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ inverting colors is just hex ^ 0xFFFF</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1684,7 +1902,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1693,9 +1911,21 @@
               <a:latin typeface="ChicagoFLF"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:rPr>
-            <a:t>→ DMA integration</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ Only right channel on FF, left on REW</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1708,7 +1938,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1717,9 +1947,33 @@
               <a:latin typeface="ChicagoFLF"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:rPr>
-            <a:t>→ Core 1 utilization</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ FIGURE OUT MONO OUTPUT!!! For speaker!</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1731,7 +1985,331 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ Clean up jukebox code for Core 0 (producer)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ read up on Core 0/1 communication</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ Come up with software arch for Core 1 (consumer)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ minimal core-core comms, both should run as indie as possible</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ Bootup animation:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ scrolling text print of peripheral init/check</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ slow render/fade logo.png</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="ChicagoFLF"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:rPr>
+            <a:t>→ oscilloscope init</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1755,9 +2333,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>107640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1767,7 +2345,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="205200" y="2730240"/>
-          <a:ext cx="3908880" cy="2958480"/>
+          <a:ext cx="3903120" cy="2952720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1799,7 +2377,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1810,7 +2388,7 @@
             </a:rPr>
             <a:t>SPKVDD = 5V</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1822,7 +2400,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1835,7 +2413,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1846,7 +2424,7 @@
             </a:rPr>
             <a:t>Duty split between Codec &amp; DAC:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1858,7 +2436,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1871,7 +2449,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1882,7 +2460,7 @@
             </a:rPr>
             <a:t>Codec: play control</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1895,7 +2473,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1906,7 +2484,7 @@
             </a:rPr>
             <a:t>→ scrubbing, next/prev, play/pause</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1919,7 +2497,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1930,7 +2508,7 @@
             </a:rPr>
             <a:t>→ tempo/speed/pitch control</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1943,7 +2521,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1954,7 +2532,7 @@
             </a:rPr>
             <a:t>→ Equalizer as well (much harder on DAC)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1966,7 +2544,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -1979,7 +2557,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1990,7 +2568,7 @@
             </a:rPr>
             <a:t>DAC: audio control</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -2003,7 +2581,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2014,7 +2592,7 @@
             </a:rPr>
             <a:t>→ volume, output source, left/right balance</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -2026,7 +2604,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -2039,7 +2617,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2051,7 +2629,7 @@
             <a:t>Codec volume always stays at MAX!!!</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2062,346 +2640,13 @@
             </a:rPr>
             <a:t>	</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>224640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Shape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="224640" y="162720"/>
-          <a:ext cx="3908880" cy="2958480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="fff1c1"/>
-        </a:solidFill>
-        <a:ln w="36720">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="182880" rIns="182880" tIns="182880" bIns="182880" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="850"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="850"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="ChicagoFLF"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:rPr>
-            <a:t>64-bit monotonic timer</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="850"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="850"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="ChicagoFLF"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:rPr>
-            <a:t>PWM: 12x 16-bit counters</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="850"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="850"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="ChicagoFLF"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:rPr>
-            <a:t>→ can trigger DMA</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="850"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="850"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="ChicagoFLF"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:rPr>
-            <a:t>→ 2x system IRQ lines</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="850"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="850"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="850"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="850"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="ChicagoFLF"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:rPr>
-            <a:t>12x PIO State Machines can act as 32-bit counters</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="850"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="850"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="ChicagoFLF"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:rPr>
-            <a:t>DMA has 4x internal timers to trigger transfers</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="850"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="850"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="ChicagoFLF"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:rPr>
-            <a:t>Each M33 core has 24-bit systick</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>785160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Shape 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127440" y="95040"/>
-          <a:ext cx="3908880" cy="2958480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="fff1c1"/>
-        </a:solidFill>
-        <a:ln w="36720">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2521,8 +2766,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2546,443 +2791,544 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="2" width="13.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="85.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="13.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="12" t="n">
         <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="12" t="n">
         <v>71</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="12" t="n">
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="12" t="n">
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="12" t="n">
         <v>75</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>18</v>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="14" t="n">
         <v>79</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="D10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="14" t="n">
         <v>52</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="14" t="n">
         <v>49</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="J12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>18</v>
+      <c r="D13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>18</v>
+      <c r="D14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="14" t="n">
         <v>36</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>18</v>
+      <c r="D15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>36</v>
+      <c r="D16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>39</v>
+      <c r="D17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="18" t="s">
+      <c r="D18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2990,232 +3336,250 @@
       <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>49</v>
+      <c r="D19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="C20" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>52</v>
+      <c r="D20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="C21" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>55</v>
+      <c r="D21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="C22" s="12" t="n">
+      <c r="C22" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>58</v>
+      <c r="D22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="18" t="s">
+      <c r="D23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="16" t="s">
         <v>61</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="C24" s="12" t="n">
+      <c r="C24" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="D24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>63</v>
+      <c r="H24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="12" t="n">
+      <c r="C25" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>65</v>
+      <c r="D25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>67</v>
+      <c r="B26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,19 +3587,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,19 +3613,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,19 +3639,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3283,19 +3665,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,19 +3691,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,19 +3717,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,19 +3743,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3393,440 +3799,551 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF5B277D"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="32.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="21.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="30.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="21.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="24" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="24" width="24.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="25" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="24" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="24" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="24" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="24" t="n">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
     <tabColor rgb="FF89FD78"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="18.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="24.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="27" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="30.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="21.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="27" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="24.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="27" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>84</v>
+      <c r="A1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="J5" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>91</v>
+      <c r="H7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>114</v>
+      <c r="A8" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>114</v>
+      <c r="A9" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="H10" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>91</v>
+      <c r="I10" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="A13" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>114</v>
+      <c r="J16" s="30" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3841,193 +4358,460 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFAB47BC"/>
+    <tabColor rgb="FFFF4000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="50.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="27.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="18.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="25.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="18.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="21.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="13.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="41" width="18.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27" t="n">
+        <f aca="false">C2*D2</f>
+        <v>1.1</v>
+      </c>
+      <c r="F2" s="27" t="n">
+        <f aca="false">E2*5</f>
+        <v>5.5</v>
+      </c>
+      <c r="H2" s="27" t="n">
+        <v>425</v>
+      </c>
+      <c r="I2" s="27" t="n">
+        <f aca="false">H2-H5-H8</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <f aca="false">C3*D3</f>
+        <v>5.54</v>
+      </c>
+      <c r="F3" s="27" t="n">
+        <f aca="false">E3*5</f>
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27" t="n">
+        <f aca="false">C4*D4</f>
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="27" t="n">
+        <f aca="false">E4*5</f>
+        <v>17.5</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="n">
+        <f aca="false">C5*D5</f>
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="27" t="n">
+        <f aca="false">E5*5</f>
+        <v>12.5</v>
+      </c>
+      <c r="H5" s="27" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27" t="n">
+        <f aca="false">C6*D6</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="27" t="n">
+        <f aca="false">E6*5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27" t="n">
+        <f aca="false">C7*D7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="27" t="n">
+        <f aca="false">E7*5</f>
+        <v>5</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27" t="n">
+        <f aca="false">C8*D8</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="27" t="n">
+        <f aca="false">E8*5</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="27" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="n">
+        <f aca="false">C9*D9</f>
+        <v>2.7</v>
+      </c>
+      <c r="F9" s="27" t="n">
+        <f aca="false">E9*5</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="n">
+        <f aca="false">C10*D10</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="27" t="n">
+        <f aca="false">E10*5</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27" t="n">
+        <f aca="false">C11*D11</f>
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="27" t="n">
+        <f aca="false">E11*5</f>
+        <v>12.5</v>
+      </c>
+      <c r="H11" s="27" t="n">
+        <f aca="false">SUM(F2:F18)</f>
+        <v>176.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27" t="n">
+        <f aca="false">C12*D12</f>
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="27" t="n">
+        <f aca="false">E12*5</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27" t="n">
+        <f aca="false">C13*D13</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="27" t="n">
+        <f aca="false">E13*5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="27" t="n">
+        <f aca="false">E14*5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F21" s="41"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27" t="n">
+        <f aca="false">C24*D24</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="27" t="n">
+        <f aca="false">E24*5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D25" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="n">
+        <f aca="false">C25*D25</f>
+        <v>1.6</v>
+      </c>
+      <c r="F25" s="27" t="n">
+        <f aca="false">E25*5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C26" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="27" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
+      <c r="E26" s="27" t="n">
+        <f aca="false">C26*D26</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="27" t="n">
+        <f aca="false">E26*5</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4039,141 +4823,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFDC0000"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="G1:J3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="2" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H2" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H3" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFBF00"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="11.53"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFF48FB1"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="11.53"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>